--- a/SOURCES/kiCAD/JLPCB_Oder files (DIFF and BAL)/FreeDSP_OCTAVIA_BOM1.xlsx
+++ b/SOURCES/kiCAD/JLPCB_Oder files (DIFF and BAL)/FreeDSP_OCTAVIA_BOM1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HILO/Documents/KICAD_DATA/FreeDSP-OCTAVIA/FreeDSP_OCTAVIA/JLPCB_Odered/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HILO/Documents/KICAD_DATA/FreeDSP-OCTAVIA/FreeDSP_OCTAVIA/SOURCES/kiCAD/JLPCB_Oder files (DIFF and BAL)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A999964A-0234-634A-990F-612663FD728C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A7B3E5-4EE3-2642-AD62-76DA4B0073CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="7120" windowWidth="40140" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="7120" windowWidth="40140" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCBA" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="603">
   <si>
     <t xml:space="preserve">    C3</t>
   </si>
@@ -609,13 +609,7 @@
     <t xml:space="preserve">    U13</t>
   </si>
   <si>
-    <t>25LC_1024</t>
-  </si>
-  <si>
     <t>Package_SO:SOIC-8_5.275x5.275mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>C157455</t>
   </si>
   <si>
     <t>PCM5102A</t>
@@ -1888,6 +1882,18 @@
   </si>
   <si>
     <t>LFCSP-72</t>
+  </si>
+  <si>
+    <t>M95256-RMN6TP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C140883</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C86715</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2284,8 +2290,8 @@
   <dimension ref="A1:D422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H412" sqref="H412"/>
+      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D410" sqref="D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2298,16 +2304,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2315,7 +2321,7 @@
         <v>98</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>99</v>
@@ -2329,7 +2335,7 @@
         <v>103</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>99</v>
@@ -2343,7 +2349,7 @@
         <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>99</v>
@@ -2357,7 +2363,7 @@
         <v>112</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>116</v>
@@ -2371,13 +2377,13 @@
         <v>112</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2385,13 +2391,13 @@
         <v>140</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2399,13 +2405,13 @@
         <v>153</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2413,7 +2419,7 @@
         <v>156</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>116</v>
@@ -2427,13 +2433,13 @@
         <v>115</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2441,13 +2447,13 @@
         <v>115</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2455,13 +2461,13 @@
         <v>115</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2469,13 +2475,13 @@
         <v>115</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2483,13 +2489,13 @@
         <v>115</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2497,13 +2503,13 @@
         <v>115</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2511,13 +2517,13 @@
         <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2525,13 +2531,13 @@
         <v>115</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2539,7 +2545,7 @@
         <v>156</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>116</v>
@@ -2553,7 +2559,7 @@
         <v>156</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>116</v>
@@ -2567,13 +2573,13 @@
         <v>115</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2581,7 +2587,7 @@
         <v>156</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>116</v>
@@ -2595,13 +2601,13 @@
         <v>185</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>184</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2609,27 +2615,27 @@
         <v>185</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>184</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2637,7 +2643,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>2</v>
@@ -2651,7 +2657,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>2</v>
@@ -2693,7 +2699,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>2</v>
@@ -2707,7 +2713,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>2</v>
@@ -2721,7 +2727,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>2</v>
@@ -2735,7 +2741,7 @@
         <v>15</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>2</v>
@@ -2749,7 +2755,7 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>2</v>
@@ -2763,7 +2769,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>2</v>
@@ -2777,7 +2783,7 @@
         <v>18</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>16</v>
@@ -2791,7 +2797,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>16</v>
@@ -2805,7 +2811,7 @@
         <v>15</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>2</v>
@@ -2819,7 +2825,7 @@
         <v>18</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>16</v>
@@ -2833,7 +2839,7 @@
         <v>18</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>16</v>
@@ -2847,7 +2853,7 @@
         <v>18</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>16</v>
@@ -2861,7 +2867,7 @@
         <v>18</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>16</v>
@@ -2875,7 +2881,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>2</v>
@@ -2889,7 +2895,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>2</v>
@@ -2903,7 +2909,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>2</v>
@@ -2917,7 +2923,7 @@
         <v>34</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>2</v>
@@ -2931,7 +2937,7 @@
         <v>23</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>16</v>
@@ -2945,7 +2951,7 @@
         <v>23</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>16</v>
@@ -2973,7 +2979,7 @@
         <v>4</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>2</v>
@@ -2987,7 +2993,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>2</v>
@@ -3001,7 +3007,7 @@
         <v>18</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>16</v>
@@ -3015,7 +3021,7 @@
         <v>18</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>16</v>
@@ -3029,7 +3035,7 @@
         <v>18</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>16</v>
@@ -3043,7 +3049,7 @@
         <v>18</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>16</v>
@@ -3057,7 +3063,7 @@
         <v>18</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>16</v>
@@ -3071,7 +3077,7 @@
         <v>18</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>16</v>
@@ -3085,7 +3091,7 @@
         <v>18</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>16</v>
@@ -3099,7 +3105,7 @@
         <v>18</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>16</v>
@@ -3113,7 +3119,7 @@
         <v>18</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>16</v>
@@ -3127,7 +3133,7 @@
         <v>18</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>16</v>
@@ -3141,7 +3147,7 @@
         <v>18</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>16</v>
@@ -3155,7 +3161,7 @@
         <v>18</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>16</v>
@@ -3169,7 +3175,7 @@
         <v>18</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>16</v>
@@ -3183,7 +3189,7 @@
         <v>18</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>16</v>
@@ -3197,7 +3203,7 @@
         <v>18</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>16</v>
@@ -3211,7 +3217,7 @@
         <v>18</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>16</v>
@@ -3225,7 +3231,7 @@
         <v>15</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>16</v>
@@ -3239,7 +3245,7 @@
         <v>15</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>2</v>
@@ -3253,7 +3259,7 @@
         <v>15</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>2</v>
@@ -3267,7 +3273,7 @@
         <v>23</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>2</v>
@@ -3281,7 +3287,7 @@
         <v>23</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>2</v>
@@ -3295,7 +3301,7 @@
         <v>23</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>2</v>
@@ -3309,7 +3315,7 @@
         <v>8</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>2</v>
@@ -3323,7 +3329,7 @@
         <v>15</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>16</v>
@@ -3337,7 +3343,7 @@
         <v>15</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>2</v>
@@ -3351,7 +3357,7 @@
         <v>15</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>2</v>
@@ -3365,7 +3371,7 @@
         <v>15</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>2</v>
@@ -3379,7 +3385,7 @@
         <v>15</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>2</v>
@@ -3393,7 +3399,7 @@
         <v>6</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>2</v>
@@ -3407,7 +3413,7 @@
         <v>4</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>2</v>
@@ -3435,7 +3441,7 @@
         <v>15</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>2</v>
@@ -3449,7 +3455,7 @@
         <v>13</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>2</v>
@@ -3463,7 +3469,7 @@
         <v>13</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>2</v>
@@ -3477,7 +3483,7 @@
         <v>13</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>2</v>
@@ -3505,7 +3511,7 @@
         <v>13</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>2</v>
@@ -3519,7 +3525,7 @@
         <v>15</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>2</v>
@@ -3533,7 +3539,7 @@
         <v>15</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>16</v>
@@ -3547,7 +3553,7 @@
         <v>18</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>2</v>
@@ -3561,7 +3567,7 @@
         <v>18</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>16</v>
@@ -3575,7 +3581,7 @@
         <v>15</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>16</v>
@@ -3603,7 +3609,7 @@
         <v>4</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>2</v>
@@ -3617,7 +3623,7 @@
         <v>4</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>2</v>
@@ -3631,7 +3637,7 @@
         <v>15</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>2</v>
@@ -3645,7 +3651,7 @@
         <v>6</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>2</v>
@@ -3659,7 +3665,7 @@
         <v>15</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>2</v>
@@ -3673,7 +3679,7 @@
         <v>15</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>2</v>
@@ -3687,7 +3693,7 @@
         <v>15</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>2</v>
@@ -3701,7 +3707,7 @@
         <v>8</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>2</v>
@@ -3715,7 +3721,7 @@
         <v>23</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>2</v>
@@ -3729,7 +3735,7 @@
         <v>15</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>2</v>
@@ -3743,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>2</v>
@@ -3757,7 +3763,7 @@
         <v>15</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>2</v>
@@ -3785,7 +3791,7 @@
         <v>15</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>16</v>
@@ -3799,7 +3805,7 @@
         <v>4</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>2</v>
@@ -3813,7 +3819,7 @@
         <v>18</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>16</v>
@@ -3841,7 +3847,7 @@
         <v>23</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>16</v>
@@ -3855,7 +3861,7 @@
         <v>15</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>16</v>
@@ -3869,7 +3875,7 @@
         <v>23</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>16</v>
@@ -3883,7 +3889,7 @@
         <v>15</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>16</v>
@@ -3911,7 +3917,7 @@
         <v>23</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>16</v>
@@ -3925,7 +3931,7 @@
         <v>15</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>16</v>
@@ -3939,7 +3945,7 @@
         <v>15</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>16</v>
@@ -3953,7 +3959,7 @@
         <v>6</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>2</v>
@@ -3967,7 +3973,7 @@
         <v>18</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>2</v>
@@ -3981,7 +3987,7 @@
         <v>15</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>16</v>
@@ -3995,7 +4001,7 @@
         <v>23</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>16</v>
@@ -4009,7 +4015,7 @@
         <v>15</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>16</v>
@@ -4023,7 +4029,7 @@
         <v>23</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>16</v>
@@ -4037,7 +4043,7 @@
         <v>15</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>16</v>
@@ -4051,7 +4057,7 @@
         <v>23</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>16</v>
@@ -4065,7 +4071,7 @@
         <v>15</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>16</v>
@@ -4079,7 +4085,7 @@
         <v>23</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>16</v>
@@ -4093,7 +4099,7 @@
         <v>15</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>2</v>
@@ -4107,7 +4113,7 @@
         <v>15</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>16</v>
@@ -4121,7 +4127,7 @@
         <v>23</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>16</v>
@@ -4135,7 +4141,7 @@
         <v>15</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>16</v>
@@ -4149,7 +4155,7 @@
         <v>15</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>16</v>
@@ -4163,7 +4169,7 @@
         <v>15</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>16</v>
@@ -4177,7 +4183,7 @@
         <v>18</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>2</v>
@@ -4191,7 +4197,7 @@
         <v>18</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>2</v>
@@ -4205,7 +4211,7 @@
         <v>15</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>2</v>
@@ -4219,7 +4225,7 @@
         <v>15</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>2</v>
@@ -4233,7 +4239,7 @@
         <v>15</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>2</v>
@@ -4247,7 +4253,7 @@
         <v>15</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>16</v>
@@ -4261,7 +4267,7 @@
         <v>15</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>2</v>
@@ -4275,7 +4281,7 @@
         <v>18</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>2</v>
@@ -4289,7 +4295,7 @@
         <v>15</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>2</v>
@@ -4303,7 +4309,7 @@
         <v>18</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>2</v>
@@ -4317,7 +4323,7 @@
         <v>15</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>2</v>
@@ -4331,7 +4337,7 @@
         <v>18</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>2</v>
@@ -4345,7 +4351,7 @@
         <v>15</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>2</v>
@@ -4359,7 +4365,7 @@
         <v>18</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>2</v>
@@ -4373,7 +4379,7 @@
         <v>15</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>2</v>
@@ -4387,7 +4393,7 @@
         <v>15</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>2</v>
@@ -4401,7 +4407,7 @@
         <v>18</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>16</v>
@@ -4415,7 +4421,7 @@
         <v>18</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>16</v>
@@ -4429,7 +4435,7 @@
         <v>18</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>16</v>
@@ -4443,7 +4449,7 @@
         <v>18</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>16</v>
@@ -4457,7 +4463,7 @@
         <v>18</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>16</v>
@@ -4471,7 +4477,7 @@
         <v>18</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>16</v>
@@ -4485,7 +4491,7 @@
         <v>34</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>2</v>
@@ -4499,7 +4505,7 @@
         <v>34</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>2</v>
@@ -4513,7 +4519,7 @@
         <v>34</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>2</v>
@@ -4527,7 +4533,7 @@
         <v>34</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>2</v>
@@ -4541,7 +4547,7 @@
         <v>43</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>44</v>
@@ -4555,7 +4561,7 @@
         <v>50</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>44</v>
@@ -4569,7 +4575,7 @@
         <v>43</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>44</v>
@@ -4583,7 +4589,7 @@
         <v>43</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>44</v>
@@ -4597,7 +4603,7 @@
         <v>43</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>44</v>
@@ -4611,7 +4617,7 @@
         <v>56</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>57</v>
@@ -4639,7 +4645,7 @@
         <v>56</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>57</v>
@@ -4695,7 +4701,7 @@
         <v>43</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>44</v>
@@ -4723,7 +4729,7 @@
         <v>43</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>44</v>
@@ -4751,7 +4757,7 @@
         <v>43</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>44</v>
@@ -4765,7 +4771,7 @@
         <v>43</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>44</v>
@@ -4779,7 +4785,7 @@
         <v>43</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>44</v>
@@ -4793,7 +4799,7 @@
         <v>43</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>44</v>
@@ -4807,7 +4813,7 @@
         <v>43</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>44</v>
@@ -4821,7 +4827,7 @@
         <v>50</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>44</v>
@@ -4835,7 +4841,7 @@
         <v>78</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>79</v>
@@ -4849,7 +4855,7 @@
         <v>71</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>77</v>
@@ -4863,7 +4869,7 @@
         <v>71</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>77</v>
@@ -4877,7 +4883,7 @@
         <v>71</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>77</v>
@@ -4891,7 +4897,7 @@
         <v>78</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>79</v>
@@ -4919,7 +4925,7 @@
         <v>74</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>75</v>
@@ -4933,7 +4939,7 @@
         <v>74</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>75</v>
@@ -4947,7 +4953,7 @@
         <v>71</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>77</v>
@@ -4961,7 +4967,7 @@
         <v>71</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>77</v>
@@ -4975,7 +4981,7 @@
         <v>71</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>77</v>
@@ -4989,7 +4995,7 @@
         <v>71</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>77</v>
@@ -5003,7 +5009,7 @@
         <v>71</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>77</v>
@@ -5031,7 +5037,7 @@
         <v>84</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>85</v>
@@ -5048,7 +5054,7 @@
         <v>87</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>89</v>
@@ -5073,7 +5079,7 @@
         <v>93</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>94</v>
@@ -5101,7 +5107,7 @@
         <v>93</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>94</v>
@@ -5115,7 +5121,7 @@
         <v>93</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>94</v>
@@ -5129,7 +5135,7 @@
         <v>98</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>99</v>
@@ -5143,7 +5149,7 @@
         <v>109</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>110</v>
@@ -5157,7 +5163,7 @@
         <v>109</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>110</v>
@@ -5185,7 +5191,7 @@
         <v>103</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>99</v>
@@ -5199,7 +5205,7 @@
         <v>103</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>99</v>
@@ -5213,7 +5219,7 @@
         <v>109</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>110</v>
@@ -5227,7 +5233,7 @@
         <v>109</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>110</v>
@@ -5241,7 +5247,7 @@
         <v>109</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>110</v>
@@ -5255,7 +5261,7 @@
         <v>109</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>110</v>
@@ -5269,7 +5275,7 @@
         <v>109</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>110</v>
@@ -5283,7 +5289,7 @@
         <v>101</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>99</v>
@@ -5297,7 +5303,7 @@
         <v>109</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>110</v>
@@ -5311,7 +5317,7 @@
         <v>109</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>110</v>
@@ -5325,7 +5331,7 @@
         <v>109</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>110</v>
@@ -5339,7 +5345,7 @@
         <v>109</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>110</v>
@@ -5353,7 +5359,7 @@
         <v>109</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>110</v>
@@ -5367,7 +5373,7 @@
         <v>109</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>110</v>
@@ -5381,7 +5387,7 @@
         <v>109</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>110</v>
@@ -5395,7 +5401,7 @@
         <v>109</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>110</v>
@@ -5409,7 +5415,7 @@
         <v>109</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>110</v>
@@ -5423,7 +5429,7 @@
         <v>103</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>99</v>
@@ -5437,7 +5443,7 @@
         <v>101</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>99</v>
@@ -5451,7 +5457,7 @@
         <v>98</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>99</v>
@@ -5465,7 +5471,7 @@
         <v>103</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>99</v>
@@ -5479,7 +5485,7 @@
         <v>98</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>99</v>
@@ -5493,7 +5499,7 @@
         <v>103</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>99</v>
@@ -5507,7 +5513,7 @@
         <v>103</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>99</v>
@@ -5521,7 +5527,7 @@
         <v>144</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>113</v>
@@ -5535,7 +5541,7 @@
         <v>144</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>113</v>
@@ -5549,7 +5555,7 @@
         <v>144</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>113</v>
@@ -5563,7 +5569,7 @@
         <v>144</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>113</v>
@@ -5577,13 +5583,13 @@
         <v>118</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5591,13 +5597,13 @@
         <v>118</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5605,13 +5611,13 @@
         <v>118</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5619,13 +5625,13 @@
         <v>118</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5633,7 +5639,7 @@
         <v>112</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>113</v>
@@ -5647,7 +5653,7 @@
         <v>115</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>113</v>
@@ -5661,7 +5667,7 @@
         <v>138</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>116</v>
@@ -5675,7 +5681,7 @@
         <v>138</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>116</v>
@@ -5689,7 +5695,7 @@
         <v>138</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>116</v>
@@ -5703,7 +5709,7 @@
         <v>138</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>116</v>
@@ -5717,7 +5723,7 @@
         <v>138</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>116</v>
@@ -5731,7 +5737,7 @@
         <v>138</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>116</v>
@@ -5745,7 +5751,7 @@
         <v>138</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>116</v>
@@ -5759,7 +5765,7 @@
         <v>138</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>116</v>
@@ -5773,7 +5779,7 @@
         <v>138</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>116</v>
@@ -5787,7 +5793,7 @@
         <v>138</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>116</v>
@@ -5801,7 +5807,7 @@
         <v>115</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>113</v>
@@ -5815,7 +5821,7 @@
         <v>138</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>116</v>
@@ -5829,7 +5835,7 @@
         <v>138</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>116</v>
@@ -5843,7 +5849,7 @@
         <v>159</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>116</v>
@@ -5857,7 +5863,7 @@
         <v>159</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>116</v>
@@ -5871,7 +5877,7 @@
         <v>159</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>116</v>
@@ -5885,7 +5891,7 @@
         <v>159</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>116</v>
@@ -5899,7 +5905,7 @@
         <v>159</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>116</v>
@@ -5913,7 +5919,7 @@
         <v>159</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>116</v>
@@ -5927,7 +5933,7 @@
         <v>159</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>116</v>
@@ -5941,7 +5947,7 @@
         <v>159</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>116</v>
@@ -5983,7 +5989,7 @@
         <v>112</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>116</v>
@@ -5997,7 +6003,7 @@
         <v>151</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>116</v>
@@ -6011,7 +6017,7 @@
         <v>151</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>116</v>
@@ -6025,7 +6031,7 @@
         <v>151</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>116</v>
@@ -6039,7 +6045,7 @@
         <v>151</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>116</v>
@@ -6053,7 +6059,7 @@
         <v>151</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>116</v>
@@ -6067,7 +6073,7 @@
         <v>151</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>116</v>
@@ -6081,7 +6087,7 @@
         <v>151</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>116</v>
@@ -6095,7 +6101,7 @@
         <v>151</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>116</v>
@@ -6109,7 +6115,7 @@
         <v>122</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>113</v>
@@ -6123,7 +6129,7 @@
         <v>151</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>116</v>
@@ -6137,7 +6143,7 @@
         <v>151</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>116</v>
@@ -6151,7 +6157,7 @@
         <v>151</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>116</v>
@@ -6165,7 +6171,7 @@
         <v>151</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>116</v>
@@ -6179,7 +6185,7 @@
         <v>151</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>116</v>
@@ -6193,7 +6199,7 @@
         <v>151</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>116</v>
@@ -6207,7 +6213,7 @@
         <v>151</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>116</v>
@@ -6235,7 +6241,7 @@
         <v>151</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>116</v>
@@ -6249,7 +6255,7 @@
         <v>144</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>116</v>
@@ -6263,7 +6269,7 @@
         <v>144</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>116</v>
@@ -6277,7 +6283,7 @@
         <v>144</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>116</v>
@@ -6291,7 +6297,7 @@
         <v>144</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>116</v>
@@ -6305,7 +6311,7 @@
         <v>140</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>113</v>
@@ -6319,7 +6325,7 @@
         <v>140</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>113</v>
@@ -6333,7 +6339,7 @@
         <v>144</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>116</v>
@@ -6347,7 +6353,7 @@
         <v>144</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>116</v>
@@ -6361,7 +6367,7 @@
         <v>144</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>116</v>
@@ -6375,7 +6381,7 @@
         <v>129</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>113</v>
@@ -6389,7 +6395,7 @@
         <v>144</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>116</v>
@@ -6403,7 +6409,7 @@
         <v>140</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>113</v>
@@ -6417,7 +6423,7 @@
         <v>140</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>113</v>
@@ -6431,7 +6437,7 @@
         <v>112</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>113</v>
@@ -6445,7 +6451,7 @@
         <v>112</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>113</v>
@@ -6459,7 +6465,7 @@
         <v>112</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>113</v>
@@ -6473,7 +6479,7 @@
         <v>112</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>113</v>
@@ -6487,7 +6493,7 @@
         <v>112</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>113</v>
@@ -6501,7 +6507,7 @@
         <v>112</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>113</v>
@@ -6515,7 +6521,7 @@
         <v>112</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>113</v>
@@ -6529,7 +6535,7 @@
         <v>122</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>113</v>
@@ -6543,7 +6549,7 @@
         <v>112</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>113</v>
@@ -6557,7 +6563,7 @@
         <v>166</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>113</v>
@@ -6571,7 +6577,7 @@
         <v>166</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>113</v>
@@ -6585,7 +6591,7 @@
         <v>151</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>116</v>
@@ -6599,7 +6605,7 @@
         <v>151</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>116</v>
@@ -6613,7 +6619,7 @@
         <v>151</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>116</v>
@@ -6627,7 +6633,7 @@
         <v>151</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>116</v>
@@ -6641,7 +6647,7 @@
         <v>151</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>116</v>
@@ -6655,7 +6661,7 @@
         <v>151</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>116</v>
@@ -6669,7 +6675,7 @@
         <v>151</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>116</v>
@@ -6683,7 +6689,7 @@
         <v>112</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>113</v>
@@ -6697,7 +6703,7 @@
         <v>151</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>116</v>
@@ -6711,7 +6717,7 @@
         <v>151</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>116</v>
@@ -6725,7 +6731,7 @@
         <v>151</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>116</v>
@@ -6739,7 +6745,7 @@
         <v>151</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>116</v>
@@ -6753,7 +6759,7 @@
         <v>151</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>116</v>
@@ -6767,7 +6773,7 @@
         <v>151</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>116</v>
@@ -6781,7 +6787,7 @@
         <v>151</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>116</v>
@@ -6795,13 +6801,13 @@
         <v>118</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6809,7 +6815,7 @@
         <v>151</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>116</v>
@@ -6823,7 +6829,7 @@
         <v>151</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>116</v>
@@ -6837,7 +6843,7 @@
         <v>144</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>116</v>
@@ -6851,7 +6857,7 @@
         <v>144</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>116</v>
@@ -6865,7 +6871,7 @@
         <v>144</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>116</v>
@@ -6879,7 +6885,7 @@
         <v>144</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>116</v>
@@ -6893,7 +6899,7 @@
         <v>140</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>113</v>
@@ -6907,7 +6913,7 @@
         <v>140</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>113</v>
@@ -6921,7 +6927,7 @@
         <v>144</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>116</v>
@@ -6935,7 +6941,7 @@
         <v>144</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>116</v>
@@ -6949,7 +6955,7 @@
         <v>112</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>113</v>
@@ -6963,7 +6969,7 @@
         <v>129</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>113</v>
@@ -6977,7 +6983,7 @@
         <v>144</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>116</v>
@@ -6991,7 +6997,7 @@
         <v>144</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>116</v>
@@ -7005,7 +7011,7 @@
         <v>112</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>113</v>
@@ -7019,7 +7025,7 @@
         <v>140</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>113</v>
@@ -7033,7 +7039,7 @@
         <v>140</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>113</v>
@@ -7047,7 +7053,7 @@
         <v>112</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>113</v>
@@ -7061,7 +7067,7 @@
         <v>112</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>113</v>
@@ -7075,7 +7081,7 @@
         <v>112</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>113</v>
@@ -7089,7 +7095,7 @@
         <v>112</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>113</v>
@@ -7103,7 +7109,7 @@
         <v>112</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>113</v>
@@ -7117,7 +7123,7 @@
         <v>127</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>113</v>
@@ -7131,7 +7137,7 @@
         <v>112</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>113</v>
@@ -7145,7 +7151,7 @@
         <v>112</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>113</v>
@@ -7159,7 +7165,7 @@
         <v>166</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>113</v>
@@ -7173,7 +7179,7 @@
         <v>166</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>113</v>
@@ -7187,7 +7193,7 @@
         <v>127</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>113</v>
@@ -7201,7 +7207,7 @@
         <v>129</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>113</v>
@@ -7215,7 +7221,7 @@
         <v>131</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>113</v>
@@ -7229,7 +7235,7 @@
         <v>131</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>113</v>
@@ -7243,7 +7249,7 @@
         <v>133</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>113</v>
@@ -7257,7 +7263,7 @@
         <v>133</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>113</v>
@@ -7285,7 +7291,7 @@
         <v>112</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>113</v>
@@ -7299,13 +7305,13 @@
         <v>118</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -7313,7 +7319,7 @@
         <v>112</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>113</v>
@@ -7327,7 +7333,7 @@
         <v>129</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>113</v>
@@ -7341,7 +7347,7 @@
         <v>129</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>113</v>
@@ -7355,7 +7361,7 @@
         <v>129</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>113</v>
@@ -7369,7 +7375,7 @@
         <v>138</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>116</v>
@@ -7383,7 +7389,7 @@
         <v>138</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>116</v>
@@ -7397,13 +7403,13 @@
         <v>118</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7411,7 +7417,7 @@
         <v>140</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>113</v>
@@ -7425,7 +7431,7 @@
         <v>112</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>116</v>
@@ -7439,7 +7445,7 @@
         <v>129</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>113</v>
@@ -7453,7 +7459,7 @@
         <v>144</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>113</v>
@@ -7467,7 +7473,7 @@
         <v>112</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>113</v>
@@ -7481,13 +7487,13 @@
         <v>118</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7495,7 +7501,7 @@
         <v>142</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>116</v>
@@ -7509,13 +7515,13 @@
         <v>118</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7523,7 +7529,7 @@
         <v>144</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>113</v>
@@ -7565,7 +7571,7 @@
         <v>151</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>116</v>
@@ -7579,7 +7585,7 @@
         <v>142</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>116</v>
@@ -7593,7 +7599,7 @@
         <v>153</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>116</v>
@@ -7607,7 +7613,7 @@
         <v>138</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>116</v>
@@ -7621,7 +7627,7 @@
         <v>138</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>116</v>
@@ -7635,7 +7641,7 @@
         <v>138</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>116</v>
@@ -7649,7 +7655,7 @@
         <v>115</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>113</v>
@@ -7663,7 +7669,7 @@
         <v>138</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>116</v>
@@ -7677,7 +7683,7 @@
         <v>138</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>116</v>
@@ -7691,7 +7697,7 @@
         <v>138</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>116</v>
@@ -7705,7 +7711,7 @@
         <v>138</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>116</v>
@@ -7719,7 +7725,7 @@
         <v>153</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>116</v>
@@ -7733,7 +7739,7 @@
         <v>112</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>116</v>
@@ -7761,7 +7767,7 @@
         <v>138</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>116</v>
@@ -7775,7 +7781,7 @@
         <v>138</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>116</v>
@@ -7789,7 +7795,7 @@
         <v>138</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>116</v>
@@ -7803,7 +7809,7 @@
         <v>100</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>113</v>
@@ -7817,13 +7823,13 @@
         <v>118</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7831,7 +7837,7 @@
         <v>100</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>113</v>
@@ -7845,7 +7851,7 @@
         <v>138</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>116</v>
@@ -7859,13 +7865,13 @@
         <v>118</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7873,7 +7879,7 @@
         <v>112</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>116</v>
@@ -7887,13 +7893,13 @@
         <v>118</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7901,13 +7907,13 @@
         <v>118</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7921,7 +7927,7 @@
         <v>184</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7932,7 +7938,7 @@
         <v>186</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D403" s="3" t="s">
         <v>188</v>
@@ -7940,184 +7946,184 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="3" t="s">
-        <v>190</v>
+        <v>600</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>192</v>
+        <v>601</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D405" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="B405" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="C405" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D405" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D406" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="B406" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="C406" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D406" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D407" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="B407" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C407" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D407" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D408" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="B408" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D408" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>197</v>
+        <v>602</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -8139,7 +8145,7 @@
         <v>84</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>85</v>

--- a/SOURCES/kiCAD/JLPCB_Oder files (DIFF and BAL)/FreeDSP_OCTAVIA_BOM1.xlsx
+++ b/SOURCES/kiCAD/JLPCB_Oder files (DIFF and BAL)/FreeDSP_OCTAVIA_BOM1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HILO/Documents/KICAD_DATA/FreeDSP-OCTAVIA/FreeDSP_OCTAVIA/SOURCES/kiCAD/JLPCB_Oder files (DIFF and BAL)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A7B3E5-4EE3-2642-AD62-76DA4B0073CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2200F677-E2D0-FB44-994F-3786299DB51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="7120" windowWidth="40140" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="603">
   <si>
     <t xml:space="preserve">    C3</t>
   </si>
@@ -1048,9 +1048,6 @@
   </si>
   <si>
     <t xml:space="preserve">    D12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    D13</t>
   </si>
   <si>
     <t xml:space="preserve">    D14</t>
@@ -1893,6 +1890,10 @@
   </si>
   <si>
     <t>C86715</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>330R</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2287,11 +2288,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D422"/>
+  <dimension ref="A1:D421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D410" sqref="D410"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A165" sqref="A165:XFD165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2304,16 +2305,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2321,7 +2322,7 @@
         <v>98</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>99</v>
@@ -2335,7 +2336,7 @@
         <v>103</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>99</v>
@@ -2349,7 +2350,7 @@
         <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>99</v>
@@ -2363,7 +2364,7 @@
         <v>112</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>116</v>
@@ -2377,13 +2378,13 @@
         <v>112</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2391,13 +2392,13 @@
         <v>140</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2405,13 +2406,13 @@
         <v>153</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2419,7 +2420,7 @@
         <v>156</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>116</v>
@@ -2433,13 +2434,13 @@
         <v>115</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2447,13 +2448,13 @@
         <v>115</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2461,13 +2462,13 @@
         <v>115</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2475,13 +2476,13 @@
         <v>115</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2489,13 +2490,13 @@
         <v>115</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2503,13 +2504,13 @@
         <v>115</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2517,13 +2518,13 @@
         <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2531,13 +2532,13 @@
         <v>115</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2545,7 +2546,7 @@
         <v>156</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>116</v>
@@ -2559,7 +2560,7 @@
         <v>156</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>116</v>
@@ -2573,13 +2574,13 @@
         <v>115</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2587,7 +2588,7 @@
         <v>156</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>116</v>
@@ -2601,13 +2602,13 @@
         <v>185</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>184</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2615,13 +2616,13 @@
         <v>185</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>184</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2632,7 +2633,7 @@
         <v>196</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>198</v>
@@ -4600,156 +4601,156 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>338</v>
+        <v>52</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>52</v>
+        <v>338</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>339</v>
+        <v>59</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="3" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>65</v>
+        <v>327</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="3" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>327</v>
+        <v>68</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>68</v>
+        <v>339</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>340</v>
+        <v>46</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>46</v>
+        <v>328</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4757,7 +4758,7 @@
         <v>43</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>44</v>
@@ -4771,7 +4772,7 @@
         <v>43</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>44</v>
@@ -4785,7 +4786,7 @@
         <v>43</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>44</v>
@@ -4799,7 +4800,7 @@
         <v>43</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>44</v>
@@ -4810,41 +4811,41 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="3" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>73</v>
@@ -4880,13 +4881,13 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>351</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>73</v>
@@ -4894,13 +4895,13 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>352</v>
+        <v>70</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>73</v>
@@ -4908,16 +4909,16 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>70</v>
+        <v>341</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4936,16 +4937,16 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>343</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5006,80 +5007,80 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>353</v>
+        <v>87</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>85</v>
+        <v>597</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>598</v>
+        <v>77</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>90</v>
+        <v>353</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>354</v>
+        <v>96</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>94</v>
@@ -5090,10 +5091,10 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>96</v>
+        <v>354</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>94</v>
@@ -5118,30 +5119,30 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>356</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="3" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5160,30 +5161,30 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>367</v>
+        <v>105</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>105</v>
+        <v>367</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5202,16 +5203,16 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>369</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5272,30 +5273,30 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5412,21 +5413,21 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>359</v>
@@ -5435,12 +5436,12 @@
         <v>99</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>360</v>
@@ -5449,12 +5450,12 @@
         <v>99</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>361</v>
@@ -5463,12 +5464,12 @@
         <v>99</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>362</v>
@@ -5477,12 +5478,12 @@
         <v>99</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>363</v>
@@ -5491,7 +5492,7 @@
         <v>99</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5510,16 +5511,16 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="3" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>365</v>
+        <v>453</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5566,7 +5567,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="3" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>457</v>
@@ -5575,7 +5576,7 @@
         <v>113</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>145</v>
+        <v>575</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5589,7 +5590,7 @@
         <v>113</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5603,7 +5604,7 @@
         <v>113</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5617,12 +5618,12 @@
         <v>113</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>461</v>
@@ -5631,35 +5632,35 @@
         <v>113</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>576</v>
+        <v>114</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>462</v>
+        <v>391</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="3" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>392</v>
+        <v>463</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5790,30 +5791,30 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="3" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>473</v>
+        <v>392</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="3" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>393</v>
+        <v>473</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5832,7 +5833,7 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="3" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>475</v>
@@ -5841,7 +5842,7 @@
         <v>116</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5944,49 +5945,49 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="3" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>483</v>
+        <v>119</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="3" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="3" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>161</v>
+        <v>483</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="3" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>484</v>
@@ -5995,7 +5996,7 @@
         <v>116</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6098,30 +6099,30 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="3" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>492</v>
+        <v>393</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="3" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>394</v>
+        <v>492</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6210,35 +6211,35 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="3" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>499</v>
+        <v>124</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="3" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>124</v>
+        <v>499</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>500</v>
@@ -6247,7 +6248,7 @@
         <v>116</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -6294,16 +6295,16 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>504</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -6322,16 +6323,16 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>506</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -6364,44 +6365,44 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>509</v>
+        <v>394</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="3" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>395</v>
+        <v>509</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>510</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6420,7 +6421,7 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="3" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>512</v>
@@ -6429,7 +6430,7 @@
         <v>113</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6518,35 +6519,35 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="3" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>519</v>
+        <v>395</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>396</v>
+        <v>519</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="3" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>520</v>
@@ -6555,7 +6556,7 @@
         <v>113</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6574,16 +6575,16 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="3" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>522</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6672,30 +6673,30 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>529</v>
+        <v>396</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="3" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>397</v>
+        <v>529</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6784,30 +6785,30 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>536</v>
+        <v>397</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>152</v>
+        <v>575</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="3" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>398</v>
+        <v>536</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>576</v>
+        <v>152</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6826,7 +6827,7 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>538</v>
@@ -6835,7 +6836,7 @@
         <v>116</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6882,16 +6883,16 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>542</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6910,16 +6911,16 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>544</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6938,44 +6939,44 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="3" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>546</v>
+        <v>384</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="3" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="3" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>399</v>
+        <v>546</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6994,21 +6995,21 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="3" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>548</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="3" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>549</v>
@@ -7017,7 +7018,7 @@
         <v>113</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7036,7 +7037,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="3" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>551</v>
@@ -7045,7 +7046,7 @@
         <v>113</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -7106,30 +7107,30 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="3" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>556</v>
+        <v>399</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -7148,7 +7149,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="3" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>558</v>
@@ -7157,7 +7158,7 @@
         <v>113</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -7176,21 +7177,21 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="3" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>401</v>
@@ -7199,12 +7200,12 @@
         <v>113</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>402</v>
@@ -7213,7 +7214,7 @@
         <v>113</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -7232,7 +7233,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>404</v>
@@ -7241,7 +7242,7 @@
         <v>113</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -7260,35 +7261,35 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>406</v>
+        <v>135</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="3" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>135</v>
+        <v>409</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>410</v>
@@ -7297,12 +7298,12 @@
         <v>113</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>114</v>
+        <v>575</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>411</v>
@@ -7311,12 +7312,12 @@
         <v>113</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>576</v>
+        <v>114</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="3" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>412</v>
@@ -7325,7 +7326,7 @@
         <v>113</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -7358,16 +7359,16 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>415</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -7375,7 +7376,7 @@
         <v>138</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>116</v>
@@ -7386,21 +7387,21 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="3" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>418</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>139</v>
+        <v>575</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="3" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>419</v>
@@ -7409,40 +7410,40 @@
         <v>113</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>576</v>
+        <v>141</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="3" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="3" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="3" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>388</v>
@@ -7451,26 +7452,26 @@
         <v>113</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="3" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>423</v>
@@ -7479,96 +7480,96 @@
         <v>113</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>114</v>
+        <v>575</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="3" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>576</v>
+        <v>143</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="3" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>143</v>
+        <v>575</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="3" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>576</v>
+        <v>145</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>428</v>
+        <v>146</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="3" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="3" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>149</v>
+        <v>428</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>429</v>
@@ -7577,12 +7578,12 @@
         <v>116</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="3" t="s">
-        <v>142</v>
+        <v>602</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>430</v>
@@ -7591,12 +7592,12 @@
         <v>116</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>431</v>
@@ -7605,7 +7606,7 @@
         <v>116</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7638,30 +7639,30 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="3" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>434</v>
+        <v>390</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="3" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7708,7 +7709,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>438</v>
@@ -7717,12 +7718,12 @@
         <v>116</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="3" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>439</v>
@@ -7731,35 +7732,35 @@
         <v>116</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="3" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>440</v>
+        <v>155</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="3" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>155</v>
+        <v>441</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7791,22 +7792,22 @@
       </c>
     </row>
     <row r="393" spans="1:4">
-      <c r="A393" s="3" t="s">
-        <v>138</v>
+      <c r="A393" s="3">
+        <v>100</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="394" spans="1:4">
-      <c r="A394" s="3">
-        <v>100</v>
+      <c r="A394" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>446</v>
@@ -7815,12 +7816,12 @@
         <v>113</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>158</v>
+        <v>575</v>
       </c>
     </row>
     <row r="395" spans="1:4">
-      <c r="A395" s="3" t="s">
-        <v>118</v>
+      <c r="A395" s="3">
+        <v>100</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>447</v>
@@ -7829,63 +7830,63 @@
         <v>113</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>576</v>
+        <v>158</v>
       </c>
     </row>
     <row r="396" spans="1:4">
-      <c r="A396" s="3">
-        <v>100</v>
+      <c r="A396" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>448</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="3" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>449</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>139</v>
+        <v>575</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>450</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>576</v>
+        <v>164</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>451</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>164</v>
+        <v>575</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7899,63 +7900,63 @@
         <v>113</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="3" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>453</v>
+        <v>182</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>184</v>
+        <v>598</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>596</v>
+        <v>188</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="3" t="s">
-        <v>187</v>
+        <v>599</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>599</v>
+        <v>190</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>188</v>
+        <v>600</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="3" t="s">
-        <v>600</v>
+        <v>191</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>189</v>
+        <v>562</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>601</v>
+        <v>193</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7963,7 +7964,7 @@
         <v>191</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>192</v>
@@ -8002,16 +8003,16 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>567</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>192</v>
+        <v>596</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -8022,10 +8023,10 @@
         <v>568</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>195</v>
+        <v>601</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -8036,10 +8037,10 @@
         <v>569</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>602</v>
+        <v>195</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -8050,7 +8051,7 @@
         <v>570</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D411" s="3" t="s">
         <v>195</v>
@@ -8064,7 +8065,7 @@
         <v>571</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D412" s="3" t="s">
         <v>195</v>
@@ -8078,7 +8079,7 @@
         <v>572</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>195</v>
@@ -8092,7 +8093,7 @@
         <v>573</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D414" s="3" t="s">
         <v>195</v>
@@ -8106,7 +8107,7 @@
         <v>574</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>195</v>
@@ -8114,93 +8115,79 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="3" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>575</v>
+        <v>167</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>597</v>
+        <v>169</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="3" t="s">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>167</v>
+        <v>560</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>170</v>
+        <v>86</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="3" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>561</v>
+        <v>171</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="421" spans="1:4">
-      <c r="A421" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B421" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C421" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D421" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4">
-      <c r="A422" s="3"/>
-      <c r="B422" s="2"/>
-      <c r="C422" s="3"/>
-      <c r="D422" s="3"/>
+      <c r="A421" s="3"/>
+      <c r="B421" s="2"/>
+      <c r="C421" s="3"/>
+      <c r="D421" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/SOURCES/kiCAD/JLPCB_Oder files (DIFF and BAL)/FreeDSP_OCTAVIA_BOM1.xlsx
+++ b/SOURCES/kiCAD/JLPCB_Oder files (DIFF and BAL)/FreeDSP_OCTAVIA_BOM1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HILO/Documents/KICAD_DATA/FreeDSP-OCTAVIA/FreeDSP_OCTAVIA/SOURCES/kiCAD/JLPCB_Oder files (DIFF and BAL)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2200F677-E2D0-FB44-994F-3786299DB51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC02F2E0-A658-9B4C-81BF-3AABC15EC1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="7120" windowWidth="40140" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="604">
   <si>
     <t xml:space="preserve">    C3</t>
   </si>
@@ -1896,12 +1896,16 @@
     <t>330R</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>3.3k</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1922,6 +1926,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1961,7 +1973,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1972,6 +1984,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2291,8 +2306,8 @@
   <dimension ref="A1:D421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A165" sqref="A165:XFD165"/>
+      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A357" sqref="A357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7288,8 +7303,8 @@
       </c>
     </row>
     <row r="357" spans="1:4">
-      <c r="A357" s="3" t="s">
-        <v>118</v>
+      <c r="A357" s="4" t="s">
+        <v>603</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>410</v>
@@ -7297,8 +7312,8 @@
       <c r="C357" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D357" s="3" t="s">
-        <v>575</v>
+      <c r="D357" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -7498,8 +7513,8 @@
       </c>
     </row>
     <row r="372" spans="1:4">
-      <c r="A372" s="3" t="s">
-        <v>118</v>
+      <c r="A372" s="4" t="s">
+        <v>603</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>389</v>
@@ -7507,8 +7522,8 @@
       <c r="C372" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D372" s="3" t="s">
-        <v>575</v>
+      <c r="D372" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="373" spans="1:4">
